--- a/Documentations/JDT_NRO.xlsx
+++ b/Documentations/JDT_NRO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/pf32wyn_eduvaud_ch/Documents/Documents/New Git/PreTPI/Documentations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/pf32wyn_eduvaud_ch/Documents/Documents/New Git/WSRVCHECKER/Documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9771EE45-ED04-4473-93EF-50F475723950}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3758865B-7A8D-4E27-A3EE-F18E59DE70E3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="255" windowWidth="21600" windowHeight="11385" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>Meeting avec M. Glassey pour discuter du projet</t>
+  </si>
+  <si>
+    <t>J'ai répondu à un mail de M. Altieri suite à sa demande avant la pause qu'on réponde tous après la pause</t>
+  </si>
+  <si>
+    <t>Lecture du mail + message de M. Glassey, accès au nouveau répertoire Git et IceScrum + lecture</t>
+  </si>
+  <si>
+    <t>J'ai lu divers documents et fait la documentation</t>
   </si>
 </sst>
 </file>
@@ -736,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26502E31-8F11-4A1D-87B5-02A720D7DBAA}">
   <dimension ref="B1:H1364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +789,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="7">
         <f>SUM(E5:E900)</f>
-        <v>1.0902777777777772</v>
+        <v>1.1562499999999996</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -1549,22 +1558,67 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>45342</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="E39" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>45342</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="E40" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>45342</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="E41" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.8194444444444531E-2</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">

--- a/Documentations/JDT_NRO.xlsx
+++ b/Documentations/JDT_NRO.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/pf32wyn_eduvaud_ch/Documents/Documents/New Git/WSRVCHECKER/Documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3758865B-7A8D-4E27-A3EE-F18E59DE70E3}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5E2A8E0-8FCF-4907-B88D-28B29FC01788}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$4:$H$1364</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -195,9 +198,6 @@
     <t>Debug et amélioration du script sur les variables, comment les fonctions travaillent ensemble etc..</t>
   </si>
   <si>
-    <t>Meeting</t>
-  </si>
-  <si>
     <t>Meeting avec M. Glassey pour discuter du projet</t>
   </si>
   <si>
@@ -209,12 +209,33 @@
   <si>
     <t>J'ai lu divers documents et fait la documentation</t>
   </si>
+  <si>
+    <t>Documentation sur la police d'exécution ( lecture de différentes solutions, choix d'une solution puis documentation sur le wiki GitHub )</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>J'ai fait des recherches sur les .csv et méthodes de comparaison de groupes dans l'AD</t>
+  </si>
+  <si>
+    <t>J'ai rencontré un soucis avec le fichier .csv ce qui m'a valu perdre du temps, je testais si le membre était dans un groupe ou non ( oui ) mais le résultat était que non, je ne comprennais pas vraiment pourquoi, j'ai debug et me suis rendu compte que la data fournie dans le csv était fausse, car je fournissais un nom de connexion à la session au lieu du nom complet mais cela m'a permis de vraiment voir en profondeur cette partie et la comprendre complétement</t>
+  </si>
+  <si>
+    <t>J'ai implémenté un InputFile au script et j'ai réussi à comparer les paramètres demandés avec un groupe de l'AD et de ça créer un OutputFile avec le résultat ( true, false de si le membre est présent dans le groupe )</t>
+  </si>
+  <si>
+    <t>Debug et amélioration de la partie concernant les fichiers CSV ( Import, Export, données )</t>
+  </si>
+  <si>
+    <t>J'ai cherché comment faire et essayé de vérifier si un groupe de l'AD existe puis j'ai fait en sorte que les fichiers/dossiers aient les bons nommages ( timestamp )</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +275,13 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -379,8 +407,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -400,9 +429,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -429,9 +455,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -745,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26502E31-8F11-4A1D-87B5-02A720D7DBAA}">
   <dimension ref="B1:H1364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,37 +792,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="7">
-        <f>SUM(E5:E900)</f>
-        <v>1.1562499999999996</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
@@ -1171,7 +1198,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>33</v>
@@ -1213,7 +1240,7 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>35</v>
@@ -1258,7 +1285,7 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>39</v>
@@ -1321,7 +1348,7 @@
         <v>9.0277777777777735E-2</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>43</v>
@@ -1363,7 +1390,7 @@
         <v>3.472222222222221E-2</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>45</v>
@@ -1384,7 +1411,7 @@
         <v>3.1249999999999889E-2</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>46</v>
@@ -1405,7 +1432,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>47</v>
@@ -1432,7 +1459,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>45331</v>
       </c>
@@ -1453,7 +1480,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>45331</v>
       </c>
@@ -1474,7 +1501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>45335</v>
       </c>
@@ -1495,7 +1522,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>45342</v>
       </c>
@@ -1516,7 +1543,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>45342</v>
       </c>
@@ -1537,7 +1564,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>45342</v>
       </c>
@@ -1552,13 +1579,13 @@
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>45342</v>
       </c>
@@ -1576,10 +1603,10 @@
         <v>12</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>45342</v>
       </c>
@@ -1594,13 +1621,13 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>45342</v>
       </c>
@@ -1618,49 +1645,151 @@
         <v>11</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <v>45344</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.3923611111111111</v>
+      </c>
       <c r="E42" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+        <v>5.902777777777779E-2</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>45344</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="E43" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>45344</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.4861111111111111</v>
+      </c>
       <c r="E44" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+        <v>7.638888888888884E-2</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>45344</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0.59027777777777779</v>
+      </c>
       <c r="E45" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>45344</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="E46" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
+        <v>45344</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0.6875</v>
+      </c>
       <c r="E47" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="3">
+        <v>45344</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="E48" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
@@ -9560,6 +9689,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B4:H1364" xr:uid="{26502E31-8F11-4A1D-87B5-02A720D7DBAA}"/>
   <mergeCells count="5">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>

--- a/Documentations/JDT_NRO.xlsx
+++ b/Documentations/JDT_NRO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/pf32wyn_eduvaud_ch/Documents/Documents/New Git/WSRVCHECKER/Documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5E2A8E0-8FCF-4907-B88D-28B29FC01788}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1FC0A29-5FA2-4286-A827-BD5B4A4462F5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -229,6 +229,15 @@
   </si>
   <si>
     <t>J'ai cherché comment faire et essayé de vérifier si un groupe de l'AD existe puis j'ai fait en sorte que les fichiers/dossiers aient les bons nommages ( timestamp )</t>
+  </si>
+  <si>
+    <t>J'ai continué de regarder comment faire pour comparer les membres de groupes de l'AD</t>
+  </si>
+  <si>
+    <t>J'ai ajouté au script un checker pour savoir si le groupe existe ou pas et pour l'utilisateur ( fonctionnel pour les groupes mais pas les users )</t>
+  </si>
+  <si>
+    <t>Re-organisation du script en séparant en plusieurs fonctions ( pas terminé )</t>
   </si>
 </sst>
 </file>
@@ -434,6 +443,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -453,9 +465,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -775,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26502E31-8F11-4A1D-87B5-02A720D7DBAA}">
   <dimension ref="B1:H1364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,34 +801,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
@@ -1791,98 +1800,134 @@
         <f t="shared" si="0"/>
         <v>1.388888888888884E-2</v>
       </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
+        <v>45345</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E49" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
+        <v>45345</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0.59375</v>
+      </c>
       <c r="E50" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E51" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E52" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E53" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E54" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E55" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E56" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E57" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E58" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E59" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E60" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E61" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E62" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E63" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E64" s="6">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Documentations/JDT_NRO.xlsx
+++ b/Documentations/JDT_NRO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/pf32wyn_eduvaud_ch/Documents/Documents/New Git/WSRVCHECKER/Documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1FC0A29-5FA2-4286-A827-BD5B4A4462F5}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89C7D330-E1C6-4708-B474-A0851D9A3C79}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>Re-organisation du script en séparant en plusieurs fonctions ( pas terminé )</t>
+  </si>
+  <si>
+    <t>J'ai continué la re-organisation du script ( presque terminé, tests à faire )</t>
+  </si>
+  <si>
+    <t>J'ai continué la re-organisation du script ( presque terminé, tests en cours + corrections en cours )</t>
+  </si>
+  <si>
+    <t>J'ai fini la re-organisation et j'ai continué des tests et corrections de bug apparus ( en cours )</t>
+  </si>
+  <si>
+    <t>Problème de communication entre les fonctions ( des fonctions return false mais la fonction qui l'appel ne comprend pas la bonne chose )</t>
   </si>
 </sst>
 </file>
@@ -785,7 +797,7 @@
   <dimension ref="B1:H1364"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,7 +1819,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>45345</v>
       </c>
@@ -1828,7 +1840,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>45345</v>
       </c>
@@ -1849,85 +1861,148 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>45349</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="E51" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="3">
+        <v>45349</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.44444444444444442</v>
+      </c>
       <c r="E52" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="3">
+        <v>45349</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E53" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B54" s="3">
+        <v>45349</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="E54" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E55" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E56" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E57" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E58" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E59" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E60" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E61" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E62" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E63" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E64" s="6">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Documentations/JDT_NRO.xlsx
+++ b/Documentations/JDT_NRO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/pf32wyn_eduvaud_ch/Documents/Documents/New Git/WSRVCHECKER/Documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89C7D330-E1C6-4708-B474-A0851D9A3C79}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{308D8AB4-00CF-4242-8B1B-A5A3A54BDFD9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
+    <workbookView xWindow="10470" yWindow="2895" windowWidth="18300" windowHeight="9345" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="JDT" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$4:$H$1364</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JDT!$B$4:$H$1359</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Administratif</t>
-  </si>
-  <si>
-    <t>M. Altieri nous a souhaité la bienvenue et expliquer diverses choses pour la suite</t>
   </si>
   <si>
     <t>Documentation</t>
@@ -112,9 +109,6 @@
   </si>
   <si>
     <t>J'ai crée mon IceScrum et définie la méthode que j'aimerai utilisé pour mon projet ( Agile )</t>
-  </si>
-  <si>
-    <t>On a parlé administratif concernant les horaires avec M. Altieri</t>
   </si>
   <si>
     <t>Je n'ai pas défini les sprints ni les story, je pense organiser ça avec M. Glassey durant la réunion de Mardi</t>
@@ -165,9 +159,6 @@
     <t>08:02.2024</t>
   </si>
   <si>
-    <t>Discussion avec des collègues ( Thomas, Arthur ) concernant le script que je vais faire</t>
-  </si>
-  <si>
     <t>Je me suis documenté concernant .yml, Hardening, architecture de code powershell et normes CIS + j'ai contacté le CDP concernant le Server 2022 afin de savoir si le serveur par défaut sans les config spécifiques suffisait pour mes tests ( oui )</t>
   </si>
   <si>
@@ -183,9 +174,6 @@
     <t>Recherche de diverses structure de code + comparaison + Hardening + .yml</t>
   </si>
   <si>
-    <t>Discussion administratif avec M. Altieri</t>
-  </si>
-  <si>
     <t>J'ai commencé le début de la structure du code</t>
   </si>
   <si>
@@ -199,9 +187,6 @@
   </si>
   <si>
     <t>Meeting avec M. Glassey pour discuter du projet</t>
-  </si>
-  <si>
-    <t>J'ai répondu à un mail de M. Altieri suite à sa demande avant la pause qu'on réponde tous après la pause</t>
   </si>
   <si>
     <t>Lecture du mail + message de M. Glassey, accès au nouveau répertoire Git et IceScrum + lecture</t>
@@ -251,11 +236,23 @@
   <si>
     <t>Problème de communication entre les fonctions ( des fonctions return false mais la fonction qui l'appel ne comprend pas la bonne chose )</t>
   </si>
+  <si>
+    <t>Correction de plusieurs problèmes au niveau des vérifications des données du CSV + ajout de vérifications</t>
+  </si>
+  <si>
+    <t>Documentation sur le style de nommage utilisé dans le script et revue de la partie sur les Policy</t>
+  </si>
+  <si>
+    <t>Revue de la partie sur les Policy et écriture du manuel d'utilisation ( lancement du script )</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[h]\ :mm\ ;@"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,9 +452,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -477,6 +471,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -794,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26502E31-8F11-4A1D-87B5-02A720D7DBAA}">
-  <dimension ref="B1:H1364"/>
+  <dimension ref="B1:H1359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,34 +810,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="15">
+        <f>SUM(E5:E495)</f>
+        <v>1.8993055555555547</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -889,7 +889,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>3</v>
@@ -909,11 +909,11 @@
         <v>0.375</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" ref="E6:E69" si="0">D6-C6</f>
+        <f t="shared" ref="E6:E64" si="0">D6-C6</f>
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>5</v>
@@ -937,10 +937,10 @@
         <v>2.430555555555558E-2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -958,13 +958,13 @@
         <v>0.10069444444444436</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -972,20 +972,20 @@
         <v>45323</v>
       </c>
       <c r="C9" s="6">
-        <v>0.5625</v>
+        <v>0.59375</v>
       </c>
       <c r="D9" s="6">
-        <v>0.59375</v>
+        <v>0.625</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -993,10 +993,10 @@
         <v>45323</v>
       </c>
       <c r="C10" s="6">
-        <v>0.59375</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="D10" s="6">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="0"/>
@@ -1006,52 +1006,55 @@
         <v>9</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>45323</v>
       </c>
       <c r="C11" s="6">
-        <v>0.63541666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D11" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.8194444444444531E-2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="C12" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D12" s="6">
-        <v>0.70486111111111116</v>
+        <v>0.46875</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="0"/>
-        <v>3.8194444444444531E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -1059,97 +1062,94 @@
         <v>45324</v>
       </c>
       <c r="C13" s="6">
-        <v>0.44791666666666669</v>
+        <v>0.46875</v>
       </c>
       <c r="D13" s="6">
-        <v>0.45833333333333331</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>45324</v>
       </c>
       <c r="C14" s="6">
-        <v>0.45833333333333331</v>
+        <v>0.5625</v>
       </c>
       <c r="D14" s="6">
-        <v>0.46875</v>
+        <v>0.59375</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
-        <v>1.0416666666666685E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="C15" s="6">
-        <v>0.46875</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D15" s="6">
-        <v>0.51041666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="C16" s="6">
-        <v>0.5625</v>
+        <v>0.375</v>
       </c>
       <c r="D16" s="6">
-        <v>0.59375</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>45328</v>
       </c>
       <c r="C17" s="6">
-        <v>0.36805555555555558</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="D17" s="6">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="0"/>
@@ -1162,40 +1162,40 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>45328</v>
       </c>
       <c r="C18" s="6">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D18" s="6">
-        <v>0.39930555555555558</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>2.430555555555558E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>45328</v>
       </c>
       <c r="C19" s="6">
-        <v>0.40972222222222227</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D19" s="6">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>9</v>
@@ -1204,133 +1204,133 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>45328</v>
       </c>
       <c r="C20" s="6">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="D20" s="6">
-        <v>0.47916666666666669</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="C21" s="6">
-        <v>0.47916666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D21" s="6">
-        <v>0.5</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="0"/>
-        <v>2.0833333333333315E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="C22" s="6">
-        <v>0.5</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="D22" s="6">
-        <v>0.51041666666666663</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
-        <v>45330</v>
+      <c r="B23" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C23" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="D23" s="6">
-        <v>0.36458333333333331</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>6.9444444444444753E-3</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>45330</v>
       </c>
       <c r="C24" s="6">
-        <v>0.36458333333333331</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="D24" s="6">
-        <v>0.3923611111111111</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>9.0277777777777735E-2</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>45330</v>
       </c>
       <c r="C25" s="6">
-        <v>0.3923611111111111</v>
+        <v>0.5625</v>
       </c>
       <c r="D25" s="6">
-        <v>0.39930555555555558</v>
+        <v>0.59375</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="0"/>
-        <v>6.9444444444444753E-3</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -1338,38 +1338,38 @@
         <v>45330</v>
       </c>
       <c r="C26" s="6">
-        <v>0.40972222222222227</v>
+        <v>0.59375</v>
       </c>
       <c r="D26" s="6">
-        <v>0.4201388888888889</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>45330</v>
       </c>
       <c r="C27" s="6">
-        <v>0.4201388888888889</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="D27" s="6">
-        <v>0.51041666666666663</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="0"/>
-        <v>9.0277777777777735E-2</v>
+        <v>3.1249999999999889E-2</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>43</v>
@@ -1380,17 +1380,17 @@
         <v>45330</v>
       </c>
       <c r="C28" s="6">
-        <v>0.5625</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="D28" s="6">
-        <v>0.59375</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>44</v>
@@ -1398,41 +1398,41 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="C29" s="6">
-        <v>0.59375</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D29" s="6">
-        <v>0.62847222222222221</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="0"/>
-        <v>3.472222222222221E-2</v>
+        <v>5.9027777777777735E-2</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="C30" s="6">
-        <v>0.63888888888888895</v>
+        <v>0.5625</v>
       </c>
       <c r="D30" s="6">
-        <v>0.67013888888888884</v>
+        <v>0.59375</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="0"/>
-        <v>3.1249999999999889E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>46</v>
@@ -1440,20 +1440,20 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="C31" s="6">
-        <v>0.67013888888888884</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D31" s="6">
-        <v>0.70138888888888884</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>47</v>
@@ -1461,20 +1461,20 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
-        <v>45331</v>
+        <v>45342</v>
       </c>
       <c r="C32" s="6">
-        <v>0.44444444444444442</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D32" s="6">
-        <v>0.4513888888888889</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="E32" s="6">
         <f t="shared" si="0"/>
-        <v>6.9444444444444753E-3</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>48</v>
@@ -1482,65 +1482,65 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
-        <v>45331</v>
+        <v>45342</v>
       </c>
       <c r="C33" s="6">
-        <v>0.4513888888888889</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="D33" s="6">
-        <v>0.51041666666666663</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" si="0"/>
-        <v>5.9027777777777735E-2</v>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>45331</v>
+        <v>45342</v>
       </c>
       <c r="C34" s="6">
-        <v>0.5625</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="D34" s="6">
-        <v>0.59375</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>2.7777777777777735E-2</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
-        <v>45335</v>
+        <v>45342</v>
       </c>
       <c r="C35" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D35" s="6">
-        <v>0.39583333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E35" s="6">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -1548,38 +1548,38 @@
         <v>45342</v>
       </c>
       <c r="C36" s="6">
-        <v>0.36805555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D36" s="6">
-        <v>0.39930555555555558</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="E36" s="6">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.8194444444444531E-2</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
-        <v>45342</v>
+        <v>45344</v>
       </c>
       <c r="C37" s="6">
-        <v>0.40972222222222227</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D37" s="6">
-        <v>0.46180555555555558</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" si="0"/>
-        <v>5.2083333333333315E-2</v>
+        <v>5.902777777777779E-2</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>52</v>
@@ -1587,86 +1587,89 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>45342</v>
+        <v>45344</v>
       </c>
       <c r="C38" s="6">
-        <v>0.46180555555555558</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="D38" s="6">
-        <v>0.48958333333333331</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="E38" s="6">
         <f t="shared" si="0"/>
-        <v>2.7777777777777735E-2</v>
+        <v>6.9444444444444753E-3</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
-        <v>45342</v>
+        <v>45344</v>
       </c>
       <c r="C39" s="6">
-        <v>0.63888888888888895</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="D39" s="6">
-        <v>0.64583333333333337</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="E39" s="6">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>7.638888888888884E-2</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
-        <v>45342</v>
+        <v>45344</v>
       </c>
       <c r="C40" s="6">
-        <v>0.64583333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="D40" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
-        <v>45342</v>
+        <v>45344</v>
       </c>
       <c r="C41" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="D41" s="6">
-        <v>0.70486111111111116</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="E41" s="6">
         <f t="shared" si="0"/>
-        <v>3.8194444444444531E-2</v>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -1674,20 +1677,20 @@
         <v>45344</v>
       </c>
       <c r="C42" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="D42" s="6">
-        <v>0.3923611111111111</v>
+        <v>0.6875</v>
       </c>
       <c r="E42" s="6">
         <f t="shared" si="0"/>
-        <v>5.902777777777779E-2</v>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -1695,257 +1698,239 @@
         <v>45344</v>
       </c>
       <c r="C43" s="6">
-        <v>0.3923611111111111</v>
+        <v>0.6875</v>
       </c>
       <c r="D43" s="6">
-        <v>0.39930555555555558</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="E43" s="6">
         <f t="shared" si="0"/>
-        <v>6.9444444444444753E-3</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="C44" s="6">
-        <v>0.40972222222222227</v>
+        <v>0.4375</v>
       </c>
       <c r="D44" s="6">
-        <v>0.4861111111111111</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E44" s="6">
         <f t="shared" si="0"/>
-        <v>7.638888888888884E-2</v>
+        <v>7.291666666666663E-2</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H44" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="C45" s="6">
         <v>0.5625</v>
       </c>
       <c r="D45" s="6">
-        <v>0.59027777777777779</v>
+        <v>0.59375</v>
       </c>
       <c r="E45" s="6">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>45344</v>
+        <v>45349</v>
       </c>
       <c r="C46" s="6">
-        <v>0.59027777777777779</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D46" s="6">
-        <v>0.62847222222222221</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="E46" s="6">
         <f t="shared" si="0"/>
-        <v>3.819444444444442E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
-        <v>45344</v>
+        <v>45349</v>
       </c>
       <c r="C47" s="6">
-        <v>0.63888888888888895</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D47" s="6">
-        <v>0.6875</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E47" s="6">
         <f t="shared" si="0"/>
-        <v>4.8611111111111049E-2</v>
+        <v>2.7777777777777735E-2</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
-        <v>45344</v>
+        <v>45349</v>
       </c>
       <c r="C48" s="6">
-        <v>0.6875</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="D48" s="6">
-        <v>0.70138888888888884</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E48" s="6">
         <f t="shared" si="0"/>
-        <v>1.388888888888884E-2</v>
+        <v>6.597222222222221E-2</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="C49" s="6">
-        <v>0.4375</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="D49" s="6">
-        <v>0.51041666666666663</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="E49" s="6">
         <f t="shared" si="0"/>
-        <v>7.291666666666663E-2</v>
+        <v>6.597222222222221E-2</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
-        <v>45345</v>
+        <v>45351</v>
       </c>
       <c r="C50" s="6">
-        <v>0.5625</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D50" s="6">
-        <v>0.59375</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="E50" s="6">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>6.5972222222222265E-2</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="C51" s="6">
-        <v>0.36805555555555558</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="D51" s="6">
-        <v>0.39930555555555558</v>
+        <v>0.5</v>
       </c>
       <c r="E51" s="6">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>9.0277777777777735E-2</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="C52" s="6">
-        <v>0.41666666666666669</v>
+        <v>0.59375</v>
       </c>
       <c r="D52" s="6">
-        <v>0.44444444444444442</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="E52" s="6">
         <f t="shared" si="0"/>
-        <v>2.7777777777777735E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="C53" s="6">
-        <v>0.44444444444444442</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="D53" s="6">
-        <v>0.51041666666666663</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="E53" s="6">
         <f t="shared" si="0"/>
-        <v>6.597222222222221E-2</v>
+        <v>5.2083333333333259E-2</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B54" s="3">
-        <v>45349</v>
-      </c>
-      <c r="C54" s="6">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="D54" s="6">
-        <v>0.70486111111111116</v>
-      </c>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E54" s="6">
         <f t="shared" si="0"/>
-        <v>6.597222222222221E-2</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -2010,37 +1995,37 @@
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E65:E128" si="1">D65-C65</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E66" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E67" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E68" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E69" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E70" s="6">
-        <f t="shared" ref="E70:E133" si="1">D70-C70</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2394,37 +2379,37 @@
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E129:E192" si="2">D129-C129</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E130" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E132" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E133" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134" s="6">
-        <f t="shared" ref="E134:E197" si="2">D134-C134</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2778,37 +2763,37 @@
     </row>
     <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E193:E256" si="3">D193-C193</f>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E197" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E198" s="6">
-        <f t="shared" ref="E198:E261" si="3">D198-C198</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3162,37 +3147,37 @@
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E257" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E257:E320" si="4">D257-C257</f>
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E258" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E259" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E260" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E261" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E262" s="6">
-        <f t="shared" ref="E262:E325" si="4">D262-C262</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3546,37 +3531,37 @@
     </row>
     <row r="321" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E321" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E321:E384" si="5">D321-C321</f>
         <v>0</v>
       </c>
     </row>
     <row r="322" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E322" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="323" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E323" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="324" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E324" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="325" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E325" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="326" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E326" s="6">
-        <f t="shared" ref="E326:E389" si="5">D326-C326</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3930,37 +3915,37 @@
     </row>
     <row r="385" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E385" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E385:E448" si="6">D385-C385</f>
         <v>0</v>
       </c>
     </row>
     <row r="386" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E386" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="387" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E387" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="388" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E388" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="389" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E389" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="390" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E390" s="6">
-        <f t="shared" ref="E390:E453" si="6">D390-C390</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4314,37 +4299,37 @@
     </row>
     <row r="449" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E449" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E449:E512" si="7">D449-C449</f>
         <v>0</v>
       </c>
     </row>
     <row r="450" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E450" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="451" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E451" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="452" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E452" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="453" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E453" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="454" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E454" s="6">
-        <f t="shared" ref="E454:E517" si="7">D454-C454</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4698,37 +4683,37 @@
     </row>
     <row r="513" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E513" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E513:E576" si="8">D513-C513</f>
         <v>0</v>
       </c>
     </row>
     <row r="514" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E514" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="515" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E515" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="516" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E516" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="517" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E517" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="518" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E518" s="6">
-        <f t="shared" ref="E518:E581" si="8">D518-C518</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5082,37 +5067,37 @@
     </row>
     <row r="577" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E577" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E577:E640" si="9">D577-C577</f>
         <v>0</v>
       </c>
     </row>
     <row r="578" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E578" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="579" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E579" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="580" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E580" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="581" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E581" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="582" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E582" s="6">
-        <f t="shared" ref="E582:E645" si="9">D582-C582</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5466,37 +5451,37 @@
     </row>
     <row r="641" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E641" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E641:E704" si="10">D641-C641</f>
         <v>0</v>
       </c>
     </row>
     <row r="642" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E642" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="643" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E643" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="644" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E644" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="645" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E645" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="646" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E646" s="6">
-        <f t="shared" ref="E646:E709" si="10">D646-C646</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -5850,37 +5835,37 @@
     </row>
     <row r="705" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E705" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="E705:E768" si="11">D705-C705</f>
         <v>0</v>
       </c>
     </row>
     <row r="706" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E706" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="707" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E707" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="708" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E708" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="709" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E709" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="710" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E710" s="6">
-        <f t="shared" ref="E710:E773" si="11">D710-C710</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6234,37 +6219,37 @@
     </row>
     <row r="769" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E769" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="E769:E832" si="12">D769-C769</f>
         <v>0</v>
       </c>
     </row>
     <row r="770" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E770" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="771" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E771" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="772" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E772" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="773" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E773" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="774" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E774" s="6">
-        <f t="shared" ref="E774:E837" si="12">D774-C774</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6618,37 +6603,37 @@
     </row>
     <row r="833" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E833" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="E833:E896" si="13">D833-C833</f>
         <v>0</v>
       </c>
     </row>
     <row r="834" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E834" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="835" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E835" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="836" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E836" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="837" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E837" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="838" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E838" s="6">
-        <f t="shared" ref="E838:E901" si="13">D838-C838</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -7002,37 +6987,37 @@
     </row>
     <row r="897" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E897" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="E897:E960" si="14">D897-C897</f>
         <v>0</v>
       </c>
     </row>
     <row r="898" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E898" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="899" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E899" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="900" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E900" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="901" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E901" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="902" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E902" s="6">
-        <f t="shared" ref="E902:E965" si="14">D902-C902</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7386,37 +7371,37 @@
     </row>
     <row r="961" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E961" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="E961:E1024" si="15">D961-C961</f>
         <v>0</v>
       </c>
     </row>
     <row r="962" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E962" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="963" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E963" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="964" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E964" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="965" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E965" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="966" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E966" s="6">
-        <f t="shared" ref="E966:E1029" si="15">D966-C966</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -7770,37 +7755,37 @@
     </row>
     <row r="1025" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1025" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="E1025:E1088" si="16">D1025-C1025</f>
         <v>0</v>
       </c>
     </row>
     <row r="1026" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1026" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="1027" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1027" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="1028" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1028" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="1029" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1029" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="1030" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1030" s="6">
-        <f t="shared" ref="E1030:E1093" si="16">D1030-C1030</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -8154,37 +8139,37 @@
     </row>
     <row r="1089" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1089" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="E1089:E1135" si="17">D1089-C1089</f>
         <v>0</v>
       </c>
     </row>
     <row r="1090" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1090" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="1091" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1091" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="1092" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1092" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="1093" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1093" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="1094" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1094" s="6">
-        <f t="shared" ref="E1094:E1140" si="17">D1094-C1094</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -8436,37 +8421,37 @@
     </row>
     <row r="1136" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1136" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="E1136:E1152" si="18">D1136-C1136</f>
         <v>0</v>
       </c>
     </row>
     <row r="1137" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1137" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="1138" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1138" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="1139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1139" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="1140" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1140" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="1141" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1141" s="6">
-        <f t="shared" ref="E1141:E1157" si="18">D1141-C1141</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -8538,37 +8523,37 @@
     </row>
     <row r="1153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1153" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="E1153:E1216" si="19">D1153-C1153</f>
         <v>0</v>
       </c>
     </row>
     <row r="1154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1154" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="1155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1155" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="1156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1156" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="1157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1157" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="1158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1158" s="6">
-        <f t="shared" ref="E1158:E1221" si="19">D1158-C1158</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8922,37 +8907,37 @@
     </row>
     <row r="1217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1217" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="E1217:E1280" si="20">D1217-C1217</f>
         <v>0</v>
       </c>
     </row>
     <row r="1218" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1218" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="1219" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1219" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="1220" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1220" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="1221" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1221" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="1222" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1222" s="6">
-        <f t="shared" ref="E1222:E1285" si="20">D1222-C1222</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -9306,37 +9291,37 @@
     </row>
     <row r="1281" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1281" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E1281:E1344" si="21">D1281-C1281</f>
         <v>0</v>
       </c>
     </row>
     <row r="1282" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1282" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="1283" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1283" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="1284" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1284" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="1285" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1285" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="1286" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1286" s="6">
-        <f t="shared" ref="E1286:E1349" si="21">D1286-C1286</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -9690,37 +9675,37 @@
     </row>
     <row r="1345" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1345" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="E1345:E1359" si="22">D1345-C1345</f>
         <v>0</v>
       </c>
     </row>
     <row r="1346" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1346" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="1347" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1347" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="1348" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1348" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="1349" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1349" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="1350" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1350" s="6">
-        <f t="shared" ref="E1350:E1364" si="22">D1350-C1350</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -9778,38 +9763,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1360" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1360" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1361" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1361" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1362" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1362" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1363" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1363" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1364" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1364" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B4:H1364" xr:uid="{26502E31-8F11-4A1D-87B5-02A720D7DBAA}"/>
+  <autoFilter ref="B4:H1359" xr:uid="{26502E31-8F11-4A1D-87B5-02A720D7DBAA}"/>
   <mergeCells count="5">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>

--- a/Documentations/JDT_NRO.xlsx
+++ b/Documentations/JDT_NRO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/pf32wyn_eduvaud_ch/Documents/Documents/New Git/WSRVCHECKER/Documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{308D8AB4-00CF-4242-8B1B-A5A3A54BDFD9}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF39207A-4633-4864-9BBC-F965332C8438}"/>
   <bookViews>
     <workbookView xWindow="10470" yWindow="2895" windowWidth="18300" windowHeight="9345" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -244,6 +244,15 @@
   </si>
   <si>
     <t>Revue de la partie sur les Policy et écriture du manuel d'utilisation ( lancement du script )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation des outils utilisés </t>
+  </si>
+  <si>
+    <t>En attendant que l'iso en-us se télécharge</t>
+  </si>
+  <si>
+    <t>Création de nouvel environnement correspondant mieux à celui chez Nestlé</t>
   </si>
 </sst>
 </file>
@@ -452,6 +461,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -471,9 +483,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -793,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26502E31-8F11-4A1D-87B5-02A720D7DBAA}">
   <dimension ref="B1:H1359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="C46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,37 +819,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="15">
+      <c r="E2" s="12"/>
+      <c r="F2" s="8">
         <f>SUM(E5:E495)</f>
-        <v>1.8993055555555547</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+        <v>1.9618055555555545</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
@@ -1928,15 +1937,45 @@
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="3">
+        <v>45352</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.4826388888888889</v>
+      </c>
       <c r="E54" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="6">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E55" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">

--- a/Documentations/JDT_NRO.xlsx
+++ b/Documentations/JDT_NRO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/pf32wyn_eduvaud_ch/Documents/Documents/New Git/WSRVCHECKER/Documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF39207A-4633-4864-9BBC-F965332C8438}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24D2CDDD-2E3D-43B3-90F2-8B95DC8591CE}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="2895" windowWidth="18300" windowHeight="9345" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
   </bookViews>
   <sheets>
     <sheet name="JDT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t>Création de nouvel environnement correspondant mieux à celui chez Nestlé</t>
+  </si>
+  <si>
+    <t>Meeting avec M. Glassey + Meeting avec JBU et M. Glassey</t>
+  </si>
+  <si>
+    <t>J'ai ajouté des commentaires au script + me suis reseigné par rapport aux potentiels syntaxes existantes en powershell pour les commentaires de fonctions</t>
+  </si>
+  <si>
+    <t>Suite au meeting, j'ai crée des logs pour les erreurs ( + retirer complétement l'affichage prompt ) et corrigé quelques erreurs que j'ai remarqué sur le script dans certaines vérifications</t>
+  </si>
+  <si>
+    <t>J'ai lu le retour de JBU pour la suite, créer les story nécessaires puis envoyer un message à M. Glassey afin qu'on confirme les story pour commencer le sprint 2 + je me suis un peu documenté sur comment faire certaines choses ( accèder clé de registre en powershell surtout )</t>
   </si>
 </sst>
 </file>
@@ -802,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26502E31-8F11-4A1D-87B5-02A720D7DBAA}">
   <dimension ref="B1:H1359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +858,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="8">
         <f>SUM(E5:E495)</f>
-        <v>1.9618055555555545</v>
+        <v>2.1631944444444433</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -1961,6 +1973,9 @@
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="3">
+        <v>45352</v>
+      </c>
       <c r="C55" s="6">
         <v>0.4826388888888889</v>
       </c>
@@ -1979,27 +1994,87 @@
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="3">
+        <v>45356</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0.42708333333333331</v>
+      </c>
       <c r="E56" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5.9027777777777735E-2</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="3">
+        <v>45356</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="E57" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B58" s="3">
+        <v>45356</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E58" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B59" s="3">
+        <v>45356</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0.69791666666666663</v>
+      </c>
       <c r="E59" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.9027777777777679E-2</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">

--- a/Documentations/JDT_NRO.xlsx
+++ b/Documentations/JDT_NRO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/pf32wyn_eduvaud_ch/Documents/Documents/New Git/WSRVCHECKER/Documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24D2CDDD-2E3D-43B3-90F2-8B95DC8591CE}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1C180A7-ADEC-452D-92DF-259DDBEEB56F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -265,6 +265,30 @@
   </si>
   <si>
     <t>J'ai lu le retour de JBU pour la suite, créer les story nécessaires puis envoyer un message à M. Glassey afin qu'on confirme les story pour commencer le sprint 2 + je me suis un peu documenté sur comment faire certaines choses ( accèder clé de registre en powershell surtout )</t>
+  </si>
+  <si>
+    <t>J'ai fini de mettre en place le deuxième serveur de tests redondant</t>
+  </si>
+  <si>
+    <t>J'ai comparé les configurations et analysé ce qui pourrait perturber le script</t>
+  </si>
+  <si>
+    <t>Correction des différences entre prod. et serveurs de tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plusieurs problèmes rencontrés, communication entre serveurs, accès etc.. </t>
+  </si>
+  <si>
+    <t>Restore d'ancienne sauvegarde du serveur car trop de problèmes sur le nouveau serveur</t>
+  </si>
+  <si>
+    <t>Reconfiguration de l'environnement + du nouveau serveur</t>
+  </si>
+  <si>
+    <t>Correction de problème sur le script</t>
+  </si>
+  <si>
+    <t>J'ai commencé un diagramme de flux</t>
   </si>
 </sst>
 </file>
@@ -814,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26502E31-8F11-4A1D-87B5-02A720D7DBAA}">
   <dimension ref="B1:H1359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +882,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="8">
         <f>SUM(E5:E495)</f>
-        <v>2.1631944444444433</v>
+        <v>2.430555555555554</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -2078,126 +2102,249 @@
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="3">
+        <v>45358</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0.34722222222222227</v>
+      </c>
       <c r="E60" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="3">
+        <v>45358</v>
+      </c>
+      <c r="C61" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0.38541666666666669</v>
+      </c>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="3">
+        <v>45358</v>
+      </c>
+      <c r="C62" s="6">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="3">
+        <v>45358</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0.67361111111111116</v>
+      </c>
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="3">
+        <v>45358</v>
+      </c>
+      <c r="C64" s="6">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="3">
+        <v>45359</v>
+      </c>
+      <c r="C65" s="6">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="E65" s="6">
         <f t="shared" ref="E65:E128" si="1">D65-C65</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="3">
+        <v>45359</v>
+      </c>
+      <c r="C66" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E66" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="3">
+        <v>45359</v>
+      </c>
+      <c r="C67" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0.59375</v>
+      </c>
       <c r="E67" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E68" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E69" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E70" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E71" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E72" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E73" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E74" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E75" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E76" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E77" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E78" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E79" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E80" s="6">
         <f t="shared" si="1"/>
         <v>0</v>

--- a/Documentations/JDT_NRO.xlsx
+++ b/Documentations/JDT_NRO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/pf32wyn_eduvaud_ch/Documents/Documents/New Git/WSRVCHECKER/Documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1C180A7-ADEC-452D-92DF-259DDBEEB56F}"/>
+  <xr:revisionPtr revIDLastSave="339" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{579B58F6-9647-471F-8AB0-749DD5652567}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
+    <workbookView xWindow="9705" yWindow="3180" windowWidth="18300" windowHeight="9345" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
   </bookViews>
   <sheets>
     <sheet name="JDT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -289,6 +289,24 @@
   </si>
   <si>
     <t>J'ai commencé un diagramme de flux</t>
+  </si>
+  <si>
+    <t>Recherche sur les paramètres dynamiques + correction d'un petit bug</t>
+  </si>
+  <si>
+    <t>Problème sur l'execution policy, n'importe quel policy fonctionnait</t>
+  </si>
+  <si>
+    <t>Correction d'un problème de license qui est apparu après la pause + j'ai essayé de trouver une vision pour commencer à écrire la suite du script</t>
+  </si>
+  <si>
+    <t>J'ai étendu la license avec: slmgr.vbs -REARM</t>
+  </si>
+  <si>
+    <t>Identification et correction de problèmes dans les logs</t>
+  </si>
+  <si>
+    <t>Certaines lignes s'écrivent en double</t>
   </si>
 </sst>
 </file>
@@ -838,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26502E31-8F11-4A1D-87B5-02A720D7DBAA}">
   <dimension ref="B1:H1359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +900,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="8">
         <f>SUM(E5:E495)</f>
-        <v>2.430555555555554</v>
+        <v>2.6041666666666652</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -2209,7 +2227,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>45359</v>
       </c>
@@ -2230,7 +2248,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>45359</v>
       </c>
@@ -2251,7 +2269,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>45359</v>
       </c>
@@ -2272,79 +2290,133 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="3">
+        <v>45363</v>
+      </c>
+      <c r="C68" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="E68" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="3">
+        <v>45363</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E69" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.10069444444444436</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="3">
+        <v>45363</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D70" s="6">
+        <v>0.6875</v>
+      </c>
       <c r="E70" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E71" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E72" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E73" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E74" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E75" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E76" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E77" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E78" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E79" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E80" s="6">
         <f t="shared" si="1"/>
         <v>0</v>

--- a/Documentations/JDT_NRO.xlsx
+++ b/Documentations/JDT_NRO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/pf32wyn_eduvaud_ch/Documents/Documents/New Git/WSRVCHECKER/Documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="339" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{579B58F6-9647-471F-8AB0-749DD5652567}"/>
+  <xr:revisionPtr revIDLastSave="466" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C6BE97F-0190-49CD-9B17-6CAFDF6960E6}"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="3180" windowWidth="18300" windowHeight="9345" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
   </bookViews>
   <sheets>
     <sheet name="JDT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -308,6 +308,42 @@
   <si>
     <t>Certaines lignes s'écrivent en double</t>
   </si>
+  <si>
+    <t>Tentative de correction du problème sur le serveur membre du domaine</t>
+  </si>
+  <si>
+    <t>Le serveur n'arrive pas à accèder à l'Active Directory ( aucune manipulation n'a été effectuée, les machines ont été allumés et une erreur apparaît quand nous voulons accéder à l'AD )</t>
+  </si>
+  <si>
+    <t>Même problème que au dessus, même après "l'aide" de M. Yawo et Varella, aucune solution pour l'instant</t>
+  </si>
+  <si>
+    <t>Tentative de correction du problème sur un des serveurs membre du domaine</t>
+  </si>
+  <si>
+    <t>Meeting avec M. Glassey</t>
+  </si>
+  <si>
+    <t>Travail sur le nouveau sprint ( RegistryKey )</t>
+  </si>
+  <si>
+    <t>Après discussion avec M. Glassey, on a décidé de se concentrer sur les nouveautés plutôt que les correctifs afin d'avoir un livrable et pouvoir valider avec JBU jeudi durant notre meeting</t>
+  </si>
+  <si>
+    <t>Réunion avec M. Glassey et les autres élèves sous lui afin de discuter du TPI/la suite</t>
+  </si>
+  <si>
+    <t>Pourcentages</t>
+  </si>
+  <si>
+    <t>Réparation d'une partie importante du script et revue globale pour mettre au point l'avancée</t>
+  </si>
+  <si>
+    <t>J'ai fait un recap d'où en est le script car après le changement de serveurs et les problèmes que j'ai rencontré, j'ai perdu quelques petites améliorations que j'avais effectué et donc une partie du script ne fonctionnait plus car ancienne version de tests récuperée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le script est capable d'aller chercher et lire la clé de registre cépendant je n'ai pas encore pu faire les fonctions pour les potentiels résultats, je pense que j'arriverai à commencer quelques unes Jeudi matin avant la réunion avec JBU et M. Glassey </t>
+  </si>
 </sst>
 </file>
 
@@ -389,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -410,15 +446,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -476,12 +503,54 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="0"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
@@ -492,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -512,31 +581,52 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -854,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26502E31-8F11-4A1D-87B5-02A720D7DBAA}">
-  <dimension ref="B1:H1359"/>
+  <dimension ref="B1:N1359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,43 +959,50 @@
     <col min="5" max="6" width="19.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="92.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="57" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="2"/>
+    <col min="9" max="10" width="11.42578125" style="2"/>
+    <col min="11" max="11" width="22.7109375" style="2" customWidth="1"/>
+    <col min="12" max="13" width="11.42578125" style="2"/>
+    <col min="14" max="14" width="17.28515625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="2:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="K1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="2:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="K2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="8">
-        <f>SUM(E5:E495)</f>
-        <v>2.6041666666666652</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -913,8 +1010,14 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+    </row>
+    <row r="4" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,8 +1039,15 @@
       <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K4" s="15">
+        <f>SUM(E5:E495)</f>
+        <v>3.1215277777777759</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>45323</v>
       </c>
@@ -960,8 +1070,14 @@
       <c r="H5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="K5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>45323</v>
       </c>
@@ -984,8 +1100,16 @@
       <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="21"/>
+    </row>
+    <row r="7" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>45323</v>
       </c>
@@ -1005,8 +1129,12 @@
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>45323</v>
       </c>
@@ -1029,8 +1157,16 @@
       <c r="H8" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>45323</v>
       </c>
@@ -1050,8 +1186,12 @@
       <c r="G9" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>45323</v>
       </c>
@@ -1072,7 +1212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>45323</v>
       </c>
@@ -1096,7 +1236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>45324</v>
       </c>
@@ -1120,7 +1260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>45324</v>
       </c>
@@ -1141,7 +1281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>45324</v>
       </c>
@@ -1162,7 +1302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>45328</v>
       </c>
@@ -1183,7 +1323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>45328</v>
       </c>
@@ -2362,58 +2502,211 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B71" s="3">
+        <v>45365</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="E71" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6.5972222222222265E-2</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B72" s="3">
+        <v>45365</v>
+      </c>
+      <c r="C72" s="6">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D72" s="6">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E72" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.10069444444444436</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73" s="3">
+        <v>45365</v>
+      </c>
+      <c r="C73" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="E73" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.14236111111111116</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="3">
+        <v>45366</v>
+      </c>
+      <c r="C74" s="6">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D74" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E74" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.9027777777777735E-2</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="3">
+        <v>45370</v>
+      </c>
+      <c r="C75" s="6">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D75" s="6">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="E75" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B76" s="3">
+        <v>45370</v>
+      </c>
+      <c r="C76" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0.4375</v>
+      </c>
       <c r="E76" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B77" s="3">
+        <v>45370</v>
+      </c>
+      <c r="C77" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="D77" s="6">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="E77" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="3">
+        <v>45370</v>
+      </c>
+      <c r="C78" s="6">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D78" s="6">
+        <v>0.50694444444444442</v>
+      </c>
       <c r="E78" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B79" s="3">
+        <v>45370</v>
+      </c>
+      <c r="C79" s="6">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D79" s="6">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="E79" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
@@ -10098,12 +10391,23 @@
     </row>
   </sheetData>
   <autoFilter ref="B4:H1359" xr:uid="{26502E31-8F11-4A1D-87B5-02A720D7DBAA}"/>
-  <mergeCells count="5">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
+  <mergeCells count="16">
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentations/JDT_NRO.xlsx
+++ b/Documentations/JDT_NRO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/pf32wyn_eduvaud_ch/Documents/Documents/New Git/WSRVCHECKER/Documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="466" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C6BE97F-0190-49CD-9B17-6CAFDF6960E6}"/>
+  <xr:revisionPtr revIDLastSave="506" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F7D4C3E-B27F-4A68-8D4F-8E22BEFFE972}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
+    <workbookView xWindow="7620" yWindow="3885" windowWidth="21180" windowHeight="11715" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
   </bookViews>
   <sheets>
     <sheet name="JDT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -343,6 +343,21 @@
   </si>
   <si>
     <t xml:space="preserve">Le script est capable d'aller chercher et lire la clé de registre cépendant je n'ai pas encore pu faire les fonctions pour les potentiels résultats, je pense que j'arriverai à commencer quelques unes Jeudi matin avant la réunion avec JBU et M. Glassey </t>
+  </si>
+  <si>
+    <t>J'ai essayé de régler un bug sur le script en lien avec le output file</t>
+  </si>
+  <si>
+    <t>Discussion M. Glassey + Réunion JBU</t>
+  </si>
+  <si>
+    <t>Retour écrit à M. Glassey du meeting</t>
+  </si>
+  <si>
+    <t>J'ai continué d'avancer sur la clé de registre et les vérifications à faire</t>
+  </si>
+  <si>
+    <t>Reflexion sur la façon de faire pour la vérification de groupes de la clé de registre</t>
   </si>
 </sst>
 </file>
@@ -581,22 +596,31 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,28 +629,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -946,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26502E31-8F11-4A1D-87B5-02A720D7DBAA}">
   <dimension ref="B1:N1359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,40 +982,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="K1" s="10" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="K1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="2:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="K2" s="18" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="K2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="19"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
@@ -1010,12 +1025,12 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1039,13 +1054,13 @@
       <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="20">
         <f>SUM(E5:E495)</f>
-        <v>3.1215277777777759</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
+        <v>3.4270833333333308</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
@@ -1070,12 +1085,12 @@
       <c r="H5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
@@ -1100,14 +1115,14 @@
       <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="22" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="21"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
@@ -1129,10 +1144,10 @@
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="19"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
@@ -1157,14 +1172,14 @@
       <c r="H8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="17" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="11"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
@@ -1186,10 +1201,10 @@
       <c r="G9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="8"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
@@ -2710,102 +2725,207 @@
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="3">
+        <v>45372</v>
+      </c>
+      <c r="C80" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D80" s="6">
+        <v>0.3888888888888889</v>
+      </c>
       <c r="E80" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="3">
+        <v>45372</v>
+      </c>
+      <c r="C81" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0.43055555555555558</v>
+      </c>
       <c r="E81" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="3">
+        <v>45372</v>
+      </c>
+      <c r="C82" s="6">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D82" s="6">
+        <v>0.4375</v>
+      </c>
       <c r="E82" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="3">
+        <v>45372</v>
+      </c>
+      <c r="C83" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="D83" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E83" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="3">
+        <v>45372</v>
+      </c>
+      <c r="C84" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D84" s="6">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E84" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="3">
+        <v>45372</v>
+      </c>
+      <c r="C85" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="D85" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="E85" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="3">
+        <v>45372</v>
+      </c>
+      <c r="C86" s="6">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D86" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="E86" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+        <v>6.2499999999999889E-2</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E87" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E88" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E89" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E90" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E91" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E92" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E93" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E94" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E95" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E96" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10392,6 +10512,14 @@
   </sheetData>
   <autoFilter ref="B4:H1359" xr:uid="{26502E31-8F11-4A1D-87B5-02A720D7DBAA}"/>
   <mergeCells count="16">
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="K9:L9"/>
@@ -10400,14 +10528,6 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentations/JDT_NRO.xlsx
+++ b/Documentations/JDT_NRO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/pf32wyn_eduvaud_ch/Documents/Documents/New Git/WSRVCHECKER/Documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="506" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F7D4C3E-B27F-4A68-8D4F-8E22BEFFE972}"/>
+  <xr:revisionPtr revIDLastSave="521" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1518C6EF-DF85-4D13-9CE9-1CAC8EE02BD9}"/>
   <bookViews>
     <workbookView xWindow="7620" yWindow="3885" windowWidth="21180" windowHeight="11715" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -358,6 +358,15 @@
   </si>
   <si>
     <t>Reflexion sur la façon de faire pour la vérification de groupes de la clé de registre</t>
+  </si>
+  <si>
+    <t>J'ai réussi à valider la première partie pour la clé de registre</t>
+  </si>
+  <si>
+    <t>Je pense pouvoir finir cette après-midi assez rapidement la clé de registre étant donné que j'ai la méthode et la logique maintenant ( si ce n'est pas le cas, il ne restera pas grand-chose, la concernant )</t>
+  </si>
+  <si>
+    <t>J'ai essayé d'ajouter un détail manquant à la première partie de la clé de registre mais je n'ai pas réussi à faire fonctionner ceci puis je suis arrivé à un point où je dois me renseigner auprès de JBU sûrement</t>
   </si>
 </sst>
 </file>
@@ -596,33 +605,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -635,13 +617,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -961,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26502E31-8F11-4A1D-87B5-02A720D7DBAA}">
   <dimension ref="B1:N1359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" topLeftCell="B79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,40 +991,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="K1" s="22" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="K1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="10"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="K2" s="11" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="K2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="11" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="12"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
@@ -1025,12 +1034,12 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1054,13 +1063,13 @@
       <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="13">
         <f>SUM(E5:E495)</f>
-        <v>3.4270833333333308</v>
-      </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
+        <v>3.5208333333333308</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
@@ -1085,12 +1094,12 @@
       <c r="H5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
@@ -1115,14 +1124,14 @@
       <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="15" t="s">
+      <c r="L6" s="20"/>
+      <c r="M6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="8"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
@@ -1144,10 +1153,10 @@
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
@@ -1172,14 +1181,14 @@
       <c r="H8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="9" t="s">
+      <c r="L8" s="20"/>
+      <c r="M8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="10"/>
+      <c r="N8" s="18"/>
     </row>
     <row r="9" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
@@ -1201,10 +1210,10 @@
       <c r="G9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
@@ -2745,7 +2754,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <v>45372</v>
       </c>
@@ -2766,7 +2775,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
         <v>45372</v>
       </c>
@@ -2787,7 +2796,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <v>45372</v>
       </c>
@@ -2808,7 +2817,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
         <v>45372</v>
       </c>
@@ -2829,7 +2838,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
         <v>45372</v>
       </c>
@@ -2850,7 +2859,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
         <v>45372</v>
       </c>
@@ -2871,61 +2880,94 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B87" s="3">
+        <v>45372</v>
+      </c>
+      <c r="C87" s="6">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D87" s="6">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E87" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+        <v>6.2499999999999944E-2</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B88" s="3">
+        <v>45372</v>
+      </c>
+      <c r="C88" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="D88" s="6">
+        <v>0.59375</v>
+      </c>
       <c r="E88" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E89" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E90" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E91" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E92" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E93" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E94" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E95" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E96" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10512,6 +10554,14 @@
   </sheetData>
   <autoFilter ref="B4:H1359" xr:uid="{26502E31-8F11-4A1D-87B5-02A720D7DBAA}"/>
   <mergeCells count="16">
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="K3:N3"/>
@@ -10520,14 +10570,6 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentations/JDT_NRO.xlsx
+++ b/Documentations/JDT_NRO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/pf32wyn_eduvaud_ch/Documents/Documents/New Git/WSRVCHECKER/Documentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="521" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1518C6EF-DF85-4D13-9CE9-1CAC8EE02BD9}"/>
+  <xr:revisionPtr revIDLastSave="532" documentId="13_ncr:1_{5DE8A0A8-6501-4ECA-8318-9CDF0F24E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{023C6637-868D-430D-A961-180464834E06}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="3885" windowWidth="21180" windowHeight="11715" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21180" windowHeight="11715" xr2:uid="{86DB9306-B773-4C37-83F0-F8CCD26E2979}"/>
   </bookViews>
   <sheets>
     <sheet name="JDT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -367,6 +367,12 @@
   </si>
   <si>
     <t>J'ai essayé d'ajouter un détail manquant à la première partie de la clé de registre mais je n'ai pas réussi à faire fonctionner ceci puis je suis arrivé à un point où je dois me renseigner auprès de JBU sûrement</t>
+  </si>
+  <si>
+    <t>J'ai divisé le script en plusieurs parties + fini la partie Registry</t>
+  </si>
+  <si>
+    <t>Meeting M. Glassey</t>
   </si>
 </sst>
 </file>
@@ -970,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26502E31-8F11-4A1D-87B5-02A720D7DBAA}">
   <dimension ref="B1:N1359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,7 +1071,7 @@
       </c>
       <c r="K4" s="13">
         <f>SUM(E5:E495)</f>
-        <v>3.5208333333333308</v>
+        <v>3.5833333333333308</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
@@ -2926,15 +2932,42 @@
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="3">
+        <v>45377</v>
+      </c>
+      <c r="C89" s="6">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D89" s="6">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="E89" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C90" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D90" s="6">
+        <v>0.44791666666666669</v>
+      </c>
       <c r="E90" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
